--- a/Detailed Hourly Report.xlsx
+++ b/Detailed Hourly Report.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>Unit: 06CENPRI_U02</t>
-  </si>
-  <si>
-    <t>Date: 2019-05-14</t>
-  </si>
-  <si>
-    <t>Time: 15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">Unit: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time: </t>
   </si>
   <si>
     <t>Interval Time</t>
@@ -39,45 +39,6 @@
   </si>
   <si>
     <t>Loss Factor</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:05</t>
-  </si>
-  <si>
-    <t>06CENPRI_U02</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:10</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:15</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:20</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:25</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:30</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:35</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:40</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:45</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:50</t>
-  </si>
-  <si>
-    <t>2019-05-14 15:55</t>
-  </si>
-  <si>
-    <t>2019-05-14 16:00</t>
   </si>
 </sst>
 </file>
@@ -440,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -486,210 +447,6 @@
         <v>7</v>
       </c>
       <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1.8</v>
-      </c>
-      <c r="G4">
-        <v>694.95</v>
-      </c>
-      <c r="I4">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1.8</v>
-      </c>
-      <c r="G5">
-        <v>1478.85</v>
-      </c>
-      <c r="I5">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>1.8</v>
-      </c>
-      <c r="G6">
-        <v>1905.09</v>
-      </c>
-      <c r="I6">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>1.8</v>
-      </c>
-      <c r="G7">
-        <v>2233.59</v>
-      </c>
-      <c r="I7">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>1.8</v>
-      </c>
-      <c r="G8">
-        <v>2233.59</v>
-      </c>
-      <c r="I8">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>1.8</v>
-      </c>
-      <c r="G9">
-        <v>2233.59</v>
-      </c>
-      <c r="I9">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>1.8</v>
-      </c>
-      <c r="G10">
-        <v>2233.59</v>
-      </c>
-      <c r="I10">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>1.8</v>
-      </c>
-      <c r="G11">
-        <v>2315.46</v>
-      </c>
-      <c r="I11">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>1.8</v>
-      </c>
-      <c r="G12">
-        <v>2315.46</v>
-      </c>
-      <c r="I12">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>1.8</v>
-      </c>
-      <c r="G13">
-        <v>2315.46</v>
-      </c>
-      <c r="I13">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>1.8</v>
-      </c>
-      <c r="G14">
-        <v>2790.92</v>
-      </c>
-      <c r="I14">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>1.8</v>
-      </c>
-      <c r="G15">
-        <v>2509.12</v>
-      </c>
-      <c r="I15">
-        <v>1.08</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
